--- a/ChatGPT_results/ChatGPT_result.xlsx
+++ b/ChatGPT_results/ChatGPT_result.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyanming/Documents/paper6/IdioMine/ChatGPT_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyanming/Desktop/tempIdioMine/idioMine/ChatGPT_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC963F7-4E47-D94F-BA5D-268775975076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C133A9-CD66-0546-A5BA-B51FD40233CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="-19100" windowWidth="27420" windowHeight="16440" activeTab="2" xr2:uid="{7C236584-99A3-E54A-8567-8A18676ABAEC}"/>
+    <workbookView xWindow="1640" yWindow="-19100" windowWidth="27420" windowHeight="16440" xr2:uid="{7C236584-99A3-E54A-8567-8A18676ABAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT_pros" sheetId="1" r:id="rId1"/>
     <sheet name="ChatGPT_libs" sheetId="2" r:id="rId2"/>
     <sheet name="ChatGPT4.0_libs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nodes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Servo myservo = new Servo(); </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,10 +80,6 @@
   </si>
   <si>
     <t>try {\n   int sensorData = getSensorValue();\n}\ncatch (SensorException e) {\n   System.out.println(\"Error reading sensor: \"+e.getMessage());\n}\n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BroadcasterFactory factory = atmosphereResource.getAtmosphereConfig().getBroadcasterFactory();\nBroadcaster broadcaster = factory.get(\"broadcastId\");\nif (broadcaster == null) {\n    broadcaster = factory.get().lookup(\"broadcastId\", true);\n}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1335,16 +1329,22 @@
 System.out.println("Sent: " + directMessage.getText() + " to " + directMessage.getRecipientScreenName());</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>BroadcasterFactory factory = atmosphereResource.getAtmosphereConfig().getBroadcasterFactory();\nBroadcaster broadcaster = factory.get(\"broadcastId\");\nif (broadcaster == null) {\n    broadcaster = factory.get().lookup(\"broadcastId\", true);\n}</t>
+  </si>
+  <si>
+    <t>AST nodes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1353,14 +1353,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1443,8 +1443,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1758,21 +1758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005379AE-FD1D-E34B-A3E4-415FDE468898}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1789,37 +1792,37 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1827,19 +1830,22 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>15</v>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1847,19 +1853,22 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>18</v>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1867,16 +1876,19 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1884,19 +1896,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.78</v>
@@ -1904,22 +1916,25 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
       </c>
       <c r="D8">
         <v>5.8799999999999998E-2</v>
@@ -1927,22 +1942,25 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1950,19 +1968,19 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1970,16 +1988,19 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1987,16 +2008,19 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2004,16 +2028,19 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2021,16 +2048,19 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2038,16 +2068,19 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -2058,16 +2091,16 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2075,16 +2108,19 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2092,7 +2128,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17">
@@ -2101,16 +2137,16 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17">
+    </row>
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2118,16 +2154,19 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2135,16 +2174,19 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2152,16 +2194,19 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2169,19 +2214,22 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>5</v>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2192,16 +2240,16 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17">
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
       </c>
       <c r="D23">
         <v>0.66669999999999996</v>
@@ -2209,16 +2257,19 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
       </c>
       <c r="D24">
         <v>7.1419999999999997E-2</v>
@@ -2226,16 +2277,19 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
       </c>
       <c r="D25">
         <v>0.88</v>
@@ -2243,16 +2297,19 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
       </c>
       <c r="D26">
         <v>0.33300000000000002</v>
@@ -2260,16 +2317,19 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0.23599999999999999</v>
@@ -2280,16 +2340,16 @@
       <c r="F27">
         <v>0.25</v>
       </c>
-      <c r="I27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17">
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2297,16 +2357,19 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
       </c>
       <c r="D29">
         <v>0.25</v>
@@ -2314,16 +2377,19 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2331,16 +2397,19 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0.58899999999999997</v>
@@ -2351,16 +2420,16 @@
       <c r="F31">
         <v>0.33333299999999999</v>
       </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17">
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2368,16 +2437,19 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2385,16 +2457,19 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
       </c>
       <c r="D34">
         <v>0.75600000000000001</v>
@@ -2405,16 +2480,16 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17">
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>52</v>
       </c>
       <c r="D35">
         <v>0.82</v>
@@ -2422,16 +2497,19 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
       </c>
       <c r="D36">
         <v>0.18870000000000001</v>
@@ -2439,16 +2517,19 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
       </c>
       <c r="D37">
         <v>0.19919999999999999</v>
@@ -2456,16 +2537,19 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>10</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2477,12 +2561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
       </c>
       <c r="D39">
         <v>0.15</v>
@@ -2493,16 +2580,16 @@
       <c r="F39">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17">
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0.12</v>
@@ -2510,16 +2597,19 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2527,16 +2617,19 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2544,16 +2637,19 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2561,16 +2657,19 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
       </c>
       <c r="D44">
         <v>0.23</v>
@@ -2578,16 +2677,19 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0.53</v>
@@ -2598,16 +2700,16 @@
       <c r="F45">
         <v>0.8</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20">
+    </row>
+    <row r="46" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0.26</v>
@@ -2615,16 +2717,19 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
       </c>
       <c r="D47">
         <v>0.31</v>
@@ -2632,16 +2737,19 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2649,16 +2757,19 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
       </c>
       <c r="D49">
         <v>0.89</v>
@@ -2666,16 +2777,19 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>13</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2687,7 +2801,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f>AVERAGE(C2:C50)</f>
+        <v>16.428571428571427</v>
+      </c>
       <c r="D51">
         <f>AVERAGE(D44:D50)</f>
         <v>0.31714285714285717</v>
@@ -2698,25 +2816,25 @@
       </c>
       <c r="F51">
         <f>AVERAGE(F2:F50)</f>
-        <v>0.35</v>
-      </c>
-      <c r="I51">
-        <f>AVERAGE(I2:I50)</f>
-        <v>7.2127659574468082</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.37857142857142856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f>STDEV(C2:C50)</f>
+        <v>11.343133018115703</v>
+      </c>
       <c r="D52">
         <f>STDEV(D2:D50)</f>
         <v>0.29757570390420252</v>
       </c>
+      <c r="E52">
+        <f>STDEV(E2:E50)</f>
+        <v>0.49658699082414787</v>
+      </c>
       <c r="F52">
         <f>STDEV(F2:F50)</f>
-        <v>0.39953679198312475</v>
-      </c>
-      <c r="I52">
-        <f>STDEV(I2:I50)</f>
-        <v>5.9011280064392038</v>
+        <v>0.46738536423780785</v>
       </c>
     </row>
   </sheetData>
@@ -2725,6 +2843,7 @@
     <hyperlink ref="J21" r:id="rId1" tooltip="grails-test-suite-uber/src/test/groovy/grails/test/mixin/InheritanceWithValidationTests.groovy" display="https://github.com/grails/grails-core/blob/396fa43c672c04e579202f04d81a1a5d203c4d61/grails-test-suite-uber/src/test/groovy/grails/test/mixin/InheritanceWithValidationTests.groovy" xr:uid="{0C7CC0F1-69EA-E949-8FE9-705A5AE58C5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2733,62 +2852,62 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2801,1010 +2920,1010 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9A60CD-1956-634B-9238-AADA69027FF7}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
